--- a/PeaksBenchmark.xlsx
+++ b/PeaksBenchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -14,57 +14,30 @@
     <sheet name="Detail" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
-    <t>Peaks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Million Rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seconds*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain / (loss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing Machine: Dell Micro Optiplex 7070, 8-Cores CPU, 32GB RAM, 500GB SSD Hard Disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distinct #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupBy #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JoinTable #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Million</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,39 +56,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Peaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconds*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second / Million Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(loss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peaks  is Under Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrossTab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All input and output files are in csv format.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>Polars</t>
+  </si>
+  <si>
+    <t>Peaks</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>0.01M</t>
+  </si>
+  <si>
+    <t>0.1M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>1000M</t>
+  </si>
+  <si>
+    <t>GroupBy</t>
+  </si>
+  <si>
+    <t>JoinTable</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Testing Machine: Dell Micro Optiplex 7070, 8-Cores CPU, 32GB RAM, 500GB SSD Hard Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polars Version: 0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Peaks is built by Go version: 1.20.3 Windows/AMD64 (Installed in Win11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distinct</t>
+    <t>Performance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GroupBy</t>
+    <t>Million Rows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JoinTable</t>
+    <t>S/Million Rows!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Million</t>
+    <t>Total Seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rows</t>
+    <t>Gain / (loss)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gain</t>
+    <t>Distinct #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(loss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Second / Million Rows</t>
+    <t>GroupBy #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,11 +214,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total Seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/Million Rows!</t>
+    <t>JoinTable #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,81 +226,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Note:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* Seconds means average time of 5 tests. Time measure covers from read input file to write output file.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/Million Rows: It means how many seconds required for each size of table to process from 1 million rows equivalent data size.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All input and output files are in csv format.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000M</t>
-  </si>
-  <si>
-    <t>Distinct</t>
-  </si>
-  <si>
-    <t>100M</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>0.1M</t>
-  </si>
-  <si>
-    <t>0.01M</t>
-  </si>
-  <si>
-    <t>Peaks</t>
-  </si>
-  <si>
-    <t>Polars</t>
-  </si>
-  <si>
-    <t>Million</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>GroupBy</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>JoinTable</t>
-  </si>
-  <si>
-    <t>Polars Version: 0.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderBy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrossTab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peaks  is Under Development</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,12 +538,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,6 +571,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -580,6 +593,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -824,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="258960768"/>
-        <c:axId val="259400832"/>
+        <c:axId val="138744960"/>
+        <c:axId val="138746496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258960768"/>
+        <c:axId val="138744960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +887,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259400832"/>
+        <c:crossAx val="138746496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259400832"/>
+        <c:axId val="138746496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +946,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258960768"/>
+        <c:crossAx val="138744960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1250,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="258513920"/>
-        <c:axId val="258515712"/>
+        <c:axId val="139002624"/>
+        <c:axId val="139004160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258513920"/>
+        <c:axId val="139002624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1313,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258515712"/>
+        <c:crossAx val="139004160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258515712"/>
+        <c:axId val="139004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1372,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258513920"/>
+        <c:crossAx val="139002624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1573,7 +1589,7 @@
                   <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,11 +1692,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="259349120"/>
-        <c:axId val="259350912"/>
+        <c:axId val="143286656"/>
+        <c:axId val="143288192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="259349120"/>
+        <c:axId val="143286656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1739,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259350912"/>
+        <c:crossAx val="143288192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259350912"/>
+        <c:axId val="143288192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1798,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259349120"/>
+        <c:crossAx val="143286656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1883,7 +1899,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72AFE48D-DF09-88DB-28B9-C7CAD58D2F80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1942,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{769F4D6D-0363-431A-847E-18B138ED05E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1985,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68338CDB-6928-4D06-92FB-134881FBF85D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2344,27 +2366,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="6.578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="2.68359375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="10.62890625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="6.62890625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="2.62890625" style="32" customWidth="1"/>
     <col min="5" max="5" width="11.3671875" style="25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.68359375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.62890625" style="25" customWidth="1"/>
     <col min="7" max="7" width="11.734375" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.3671875" style="25" customWidth="1"/>
     <col min="9" max="16384" width="8.734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9.9" customHeight="1">
+    <row r="1" spans="2:9" ht="10" customHeight="1">
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
@@ -2374,39 +2396,39 @@
     </row>
     <row r="2" spans="2:9" s="29" customFormat="1" ht="19.8">
       <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="47"/>
       <c r="I2" s="36" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="19" customFormat="1">
       <c r="C3" s="30" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+        <v>6</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="31" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="19" customFormat="1">
@@ -2416,7 +2438,7 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="32">
         <v>0.01</v>
@@ -2546,7 +2568,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="32">
         <v>0.01</v>
@@ -2676,7 +2698,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19" s="32">
         <v>0.01</v>
@@ -2782,19 +2804,19 @@
         <v>1000</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G24" s="20">
         <v>171.8914</v>
       </c>
       <c r="H24" s="20">
-        <v>0.1718914</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.3" thickBot="1">
@@ -2806,59 +2828,59 @@
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1">
       <c r="B26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
+        <v>14</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1">
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1">
       <c r="B28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
+        <v>16</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="B30" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+        <v>17</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="2:9">
       <c r="E31" s="21"/>
@@ -2869,7 +2891,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="40" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -2878,7 +2900,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -2887,7 +2909,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="25" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -2927,35 +2949,35 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="41"/>
-    <col min="2" max="2" width="8.83984375" style="43"/>
-    <col min="3" max="13" width="8.83984375" style="41"/>
-    <col min="14" max="17" width="8.83984375" style="42"/>
-    <col min="18" max="16384" width="8.83984375" style="41"/>
+    <col min="1" max="1" width="8.89453125" style="41"/>
+    <col min="2" max="2" width="8.89453125" style="43"/>
+    <col min="3" max="13" width="8.89453125" style="41"/>
+    <col min="14" max="17" width="8.89453125" style="42"/>
+    <col min="18" max="16384" width="8.89453125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
       <c r="N1" s="46" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="14:19">
       <c r="N2" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P2" s="42">
         <v>4.0199999999999996</v>
@@ -2966,10 +2988,10 @@
     </row>
     <row r="3" spans="14:19">
       <c r="N3" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P3" s="42">
         <v>0.93799999999999994</v>
@@ -2980,10 +3002,10 @@
     </row>
     <row r="4" spans="14:19">
       <c r="N4" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P4" s="42">
         <v>0.21299999999999999</v>
@@ -2994,10 +3016,10 @@
     </row>
     <row r="5" spans="14:19">
       <c r="N5" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P5" s="42">
         <v>0.123</v>
@@ -3008,10 +3030,10 @@
     </row>
     <row r="6" spans="14:19">
       <c r="N6" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P6" s="42">
         <v>0.114</v>
@@ -3022,7 +3044,7 @@
     </row>
     <row r="7" spans="14:19">
       <c r="N7" s="42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O7" s="44" t="s">
         <v>31</v>
@@ -3086,35 +3108,35 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="41"/>
-    <col min="2" max="2" width="8.83984375" style="43"/>
-    <col min="3" max="13" width="8.83984375" style="41"/>
-    <col min="14" max="17" width="8.83984375" style="42"/>
-    <col min="18" max="16384" width="8.83984375" style="41"/>
+    <col min="1" max="1" width="8.89453125" style="41"/>
+    <col min="2" max="2" width="8.89453125" style="43"/>
+    <col min="3" max="13" width="8.89453125" style="41"/>
+    <col min="14" max="17" width="8.89453125" style="42"/>
+    <col min="18" max="16384" width="8.89453125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
       <c r="N1" s="46" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="14:19">
       <c r="N2" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P2" s="42">
         <v>3.42</v>
@@ -3125,10 +3147,10 @@
     </row>
     <row r="3" spans="14:19">
       <c r="N3" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P3" s="42">
         <v>1.034</v>
@@ -3139,10 +3161,10 @@
     </row>
     <row r="4" spans="14:19">
       <c r="N4" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P4" s="42">
         <v>0.27200000000000002</v>
@@ -3153,10 +3175,10 @@
     </row>
     <row r="5" spans="14:19">
       <c r="N5" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P5" s="42">
         <v>0.154</v>
@@ -3167,10 +3189,10 @@
     </row>
     <row r="6" spans="14:19">
       <c r="N6" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P6" s="42">
         <v>0.129</v>
@@ -3181,7 +3203,7 @@
     </row>
     <row r="7" spans="14:19">
       <c r="N7" s="42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O7" s="44" t="s">
         <v>31</v>
@@ -3242,38 +3264,38 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="41"/>
-    <col min="2" max="2" width="8.83984375" style="43"/>
-    <col min="3" max="13" width="8.83984375" style="41"/>
-    <col min="14" max="18" width="8.83984375" style="42"/>
-    <col min="19" max="16384" width="8.83984375" style="41"/>
+    <col min="1" max="1" width="8.89453125" style="41"/>
+    <col min="2" max="2" width="8.89453125" style="43"/>
+    <col min="3" max="13" width="8.89453125" style="41"/>
+    <col min="14" max="18" width="8.89453125" style="42"/>
+    <col min="19" max="16384" width="8.89453125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="14:19">
       <c r="N1" s="46" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="14:19">
       <c r="N2" s="42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P2" s="42">
         <v>3.14</v>
@@ -3284,10 +3306,10 @@
     </row>
     <row r="3" spans="14:19">
       <c r="N3" s="42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P3" s="42">
         <v>0.61199999999999999</v>
@@ -3298,10 +3320,10 @@
     </row>
     <row r="4" spans="14:19">
       <c r="N4" s="42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P4" s="42">
         <v>0.39700000000000002</v>
@@ -3312,10 +3334,10 @@
     </row>
     <row r="5" spans="14:19">
       <c r="N5" s="42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P5" s="42">
         <v>0.38800000000000001</v>
@@ -3326,10 +3348,10 @@
     </row>
     <row r="6" spans="14:19">
       <c r="N6" s="42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P6" s="42">
         <v>0.88600000000000001</v>
@@ -3340,16 +3362,16 @@
     </row>
     <row r="7" spans="14:19">
       <c r="N7" s="42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O7" s="44" t="s">
         <v>31</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="42">
-        <v>0.17199999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="9" spans="14:19">
@@ -3401,39 +3423,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.62890625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.62890625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.62890625" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.3671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.3125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.3671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="10.3671875" style="3" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10.47265625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.89453125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="2" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.734375" style="3" customWidth="1"/>
     <col min="14" max="14" width="14.3671875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="9.734375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="10.1015625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="19" width="9.7890625" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="2.578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.05078125" style="11" customWidth="1"/>
+    <col min="18" max="19" width="9.734375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="2.62890625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12" style="11" customWidth="1"/>
     <col min="22" max="16384" width="8.734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3455,12 +3477,12 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3477,7 +3499,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="9.9" customHeight="1">
+    <row r="3" spans="2:22" ht="10" customHeight="1">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -3500,10 +3522,10 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="47"/>
+      <c r="E4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="58"/>
       <c r="G4" s="13">
         <v>1</v>
       </c>
@@ -3520,10 +3542,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="47"/>
+      <c r="M4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="58"/>
       <c r="O4" s="13">
         <v>1</v>
       </c>
@@ -3541,47 +3563,47 @@
       </c>
       <c r="T4" s="16"/>
       <c r="U4" s="17" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="2:22" s="5" customFormat="1" ht="15.3" thickTop="1">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
       <c r="M5" s="38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
       <c r="T5" s="3"/>
       <c r="U5" s="12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="V5" s="3"/>
     </row>
@@ -3608,7 +3630,7 @@
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7">
         <v>0.01</v>
@@ -3964,7 +3986,7 @@
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>0.01</v>
@@ -4077,7 +4099,7 @@
         <v>-0.32241153342070783</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -4323,7 +4345,7 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7">
         <v>0.01</v>
@@ -4609,52 +4631,52 @@
         <v>1000</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="23">
-        <f t="shared" si="6"/>
-        <v>171.8914</v>
+        <f>SUM(O26:S26)/5</f>
+        <v>301.87979999999999</v>
       </c>
       <c r="N26" s="20">
         <f>M26/1000</f>
-        <v>0.1718914</v>
+        <v>0.30187979999999998</v>
       </c>
       <c r="O26" s="24">
-        <v>172.76400000000001</v>
+        <v>227.70500000000001</v>
       </c>
       <c r="P26" s="24">
-        <v>175.661</v>
+        <v>293.99700000000001</v>
       </c>
       <c r="Q26" s="24">
-        <v>168.83099999999999</v>
+        <v>322.50099999999998</v>
       </c>
       <c r="R26" s="24">
-        <v>170.72399999999999</v>
+        <v>333.51499999999999</v>
       </c>
       <c r="S26" s="24">
-        <v>171.477</v>
+        <v>331.68099999999998</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:21">
@@ -4676,7 +4698,7 @@
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -4696,12 +4718,12 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4721,7 +4743,7 @@
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
